--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0011-041 - Role selain sales mengakses menu.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0011-041 - Role selain sales mengakses menu.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB59FFD-B075-482B-B714-50F95E74AFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B94506-6661-4182-AEB7-2AE01DA1A8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="3330" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0210" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0011" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -86,9 +86,6 @@
     <t>TEXT5</t>
   </si>
   <si>
-    <t>DGS-225</t>
-  </si>
-  <si>
     <t>Role selain sales mengakses menu: Report Menu - Product Holding Ratio - Report</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>Pemimpin Wilayah</t>
+  </si>
+  <si>
+    <t>SCD0011-041</t>
   </si>
 </sst>
 </file>
@@ -158,27 +158,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -187,27 +172,31 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,13 +507,13 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="61.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
@@ -546,207 +535,239 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="25.5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="F2" s="7">
         <v>52326</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
+      <c r="H2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
     </row>
     <row r="3" spans="1:21" ht="25.5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="F3" s="10">
         <v>38262</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="2"/>
+      <c r="H3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:21" ht="25.5">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="F4" s="10">
         <v>19639</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="2"/>
+      <c r="H4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:21" ht="25.5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="F5" s="10">
         <v>18994</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
+      <c r="H5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="1:21" ht="25.5">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="F6" s="10">
         <v>37400</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
+      <c r="H6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
